--- a/src/data.xlsx
+++ b/src/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,8 +11,21 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,6 +80,351 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>月销售分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="31"/>
+              <c:pt idx="0">
+                <c:v>20200101</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20200102</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>20200103</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>20200104</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>20200105</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>20200106</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>20200107</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>20200108</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>20200109</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>20200110</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20200111</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>20200112</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20200113</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>20200114</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>20200115</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>20200116</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>20200117</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>20200118</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20200119</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>20200120</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>20200121</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>20200122</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>20200123</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>20200124</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>20200125</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>20200126</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>20200127</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>20200128</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>20200129</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>20200130</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>20200131</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="249587200"/>
+        <c:axId val="249588736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="249587200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>日期</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="249588736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249588736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="249587200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,15 +712,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>20200101</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>20200102</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20200103</v>
+      </c>
+      <c r="B4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>20200104</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>20200105</v>
+      </c>
+      <c r="B6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>20200106</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>20200107</v>
+      </c>
+      <c r="B8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>20200108</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>20200109</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>20200110</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>20200111</v>
+      </c>
+      <c r="B12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>20200112</v>
+      </c>
+      <c r="B13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>20200113</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>20200114</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>20200115</v>
+      </c>
+      <c r="B16">
+        <f ca="1">RANDBETWEEN(50,99)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>20200116</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B32" ca="1" si="0">RANDBETWEEN(50,99)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>20200117</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>20200118</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20200119</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20200120</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>20200121</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>20200122</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>20200123</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>20200124</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>20200125</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>20200126</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>20200127</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>20200128</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>20200129</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>20200130</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>20200131</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
